--- a/pesquisador.xlsx
+++ b/pesquisador.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\prog\concurso_embrapa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE879B5C-17AC-43B2-9E67-B292DAB04C90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{141FB6CA-E119-4E19-8779-E35CDDF1FB82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2010,8 +2010,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/pesquisador.xlsx
+++ b/pesquisador.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\prog\concurso_embrapa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{141FB6CA-E119-4E19-8779-E35CDDF1FB82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{813B43C8-479D-4595-9B72-A6F42197926C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2010,13 +2010,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="10" max="10" width="9.140625" customWidth="1"/>
+    <col min="10" max="10" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">

--- a/pesquisador.xlsx
+++ b/pesquisador.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\prog\concurso_embrapa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{813B43C8-479D-4595-9B72-A6F42197926C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BF469F9-E4F6-47C7-8D25-9C1D33483EBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1493,9 +1493,6 @@
     <t>Mecatrônica; Engenharia Agrícola; Agronomia; Zootecnia; Medicina Veterinária; Ciências Agrárias; Engenharia Elétrica; Engenharia em Computação; Ciência da Computação; Engenharia de Sistemas; Computação Aplicada; Matemática Aplicada; Engenharia Mecânica; Engenharia da Produção</t>
   </si>
   <si>
-    <t>Ciências Exatas; Engenharia Agrícola; Agronomia; Zootecnia; Medicina Veterinária; Ciências Agrárias; Engenharia Elétrica; Engenharia da Computação; Ciência da Computação, Engenharia de Sistemas, Computação Aplicada, Matemática Aplicada, Engenharia Mecânica, Engenharia da Produção; Engenharia de Automação; Engenharia de Bioprocessos; Engenharia de Biossistemas; Engenharia de Controle e Automação; Engenharia de Instrumentação, Automação e Robótica; Engenharia de Robôs; Engenharia de Sistemas Ciber Físicos; Engenharia Mecatrônica</t>
-  </si>
-  <si>
     <t>Elaborar, executar, coordenar e avaliar programas, projetos e subprojetos de pesquisa e desenvolvimento, relacionados a: (a) automação agropecuária para ganhos de eficiência e produtividade; (b) agricultura de precisão e digital; (c) tecnologias da informação e comunicação aplicadas à agropecuária; (d) inovações em tecnologias de sensoriamento e geotecnologias, aplicadas a sistemas, máquinas e implementos agrícolas; (e) fenotipagem digital de plantas e animais; (f) inteligência artificial.</t>
   </si>
   <si>
@@ -1635,6 +1632,9 @@
   </si>
   <si>
     <t>Elaborar, executar, coordenar e avaliar programas, projetos e subprojetos de pesquisa e desenvolvimento, relacionados a: (a) bacteriologia vegetal; (b) identificação de bactérias fitopatogênicas (biológicas, bioquímicas, sorológicas e moleculares); (c) epidemiologia e controle de doenças causadas por bactérias; (d) bacteriófagos; (e) genômica, proteômica e transformação de bactérias fitopatogênicas; (f) interação planta e bactéria e sua aplicação na seleção de plantas resistentes (defesa genética e induzida).</t>
+  </si>
+  <si>
+    <t>Ciências Exatas; Engenharia Agrícola; Agronomia; Zootecnia; Medicina Veterinária; Ciências Agrárias; Engenharia Elétrica; Engenharia da Computação; Ciência da Computação; Engenharia de Sistemas; Computação Aplicada; Matemática Aplicada; Engenharia Mecânica; Engenharia da Produção; Engenharia de Automação; Engenharia de Bioprocessos; Engenharia de Biossistemas; Engenharia de Controle e Automação; Engenharia de Instrumentação; Automação e Robótica; Engenharia de Robôs; Engenharia de Sistemas Ciber Físicos; Engenharia Mecatrônica</t>
   </si>
 </sst>
 </file>
@@ -2010,8 +2010,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
+      <selection activeCell="J94" sqref="J94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2086,13 +2086,13 @@
         <v>5</v>
       </c>
       <c r="J2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="K2" t="s">
         <v>46</v>
       </c>
       <c r="L2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -2124,13 +2124,13 @@
         <v>5</v>
       </c>
       <c r="J3" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="K3" t="s">
         <v>47</v>
       </c>
       <c r="L3" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -2162,13 +2162,13 @@
         <v>2</v>
       </c>
       <c r="J4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="K4" t="s">
         <v>48</v>
       </c>
       <c r="L4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -2200,13 +2200,13 @@
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="K5" t="s">
         <v>49</v>
       </c>
       <c r="L5" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -2238,13 +2238,13 @@
         <v>3</v>
       </c>
       <c r="J6" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="K6" t="s">
         <v>50</v>
       </c>
       <c r="L6" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -2282,7 +2282,7 @@
         <v>52</v>
       </c>
       <c r="L7" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -2314,13 +2314,13 @@
         <v>2</v>
       </c>
       <c r="J8" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="K8" t="s">
         <v>53</v>
       </c>
       <c r="L8" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -2352,13 +2352,13 @@
         <v>4</v>
       </c>
       <c r="J9" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="K9" t="s">
         <v>54</v>
       </c>
       <c r="L9" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -2390,13 +2390,13 @@
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="K10" t="s">
         <v>55</v>
       </c>
       <c r="L10" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -2428,13 +2428,13 @@
         <v>3</v>
       </c>
       <c r="J11" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="K11" t="s">
         <v>56</v>
       </c>
       <c r="L11" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -5129,10 +5129,10 @@
         <v>485</v>
       </c>
       <c r="K82" t="s">
+        <v>533</v>
+      </c>
+      <c r="L82" t="s">
         <v>486</v>
-      </c>
-      <c r="L82" t="s">
-        <v>487</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
@@ -5164,13 +5164,13 @@
         <v>1</v>
       </c>
       <c r="J83" t="s">
+        <v>487</v>
+      </c>
+      <c r="K83" t="s">
         <v>488</v>
       </c>
-      <c r="K83" t="s">
+      <c r="L83" t="s">
         <v>489</v>
-      </c>
-      <c r="L83" t="s">
-        <v>490</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
@@ -5202,13 +5202,13 @@
         <v>1</v>
       </c>
       <c r="J84" t="s">
+        <v>490</v>
+      </c>
+      <c r="K84" t="s">
         <v>491</v>
       </c>
-      <c r="K84" t="s">
+      <c r="L84" t="s">
         <v>492</v>
-      </c>
-      <c r="L84" t="s">
-        <v>493</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
@@ -5219,10 +5219,10 @@
         <v>19</v>
       </c>
       <c r="C85" t="s">
+        <v>493</v>
+      </c>
+      <c r="D85" t="s">
         <v>494</v>
-      </c>
-      <c r="D85" t="s">
-        <v>495</v>
       </c>
       <c r="E85" t="s">
         <v>296</v>
@@ -5240,13 +5240,13 @@
         <v>1</v>
       </c>
       <c r="J85" t="s">
+        <v>495</v>
+      </c>
+      <c r="K85" t="s">
         <v>496</v>
       </c>
-      <c r="K85" t="s">
-        <v>497</v>
-      </c>
       <c r="L85" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
@@ -5257,10 +5257,10 @@
         <v>19</v>
       </c>
       <c r="C86" t="s">
+        <v>497</v>
+      </c>
+      <c r="D86" t="s">
         <v>498</v>
-      </c>
-      <c r="D86" t="s">
-        <v>499</v>
       </c>
       <c r="E86" t="s">
         <v>296</v>
@@ -5278,13 +5278,13 @@
         <v>1</v>
       </c>
       <c r="J86" t="s">
+        <v>495</v>
+      </c>
+      <c r="K86" t="s">
         <v>496</v>
       </c>
-      <c r="K86" t="s">
-        <v>497</v>
-      </c>
       <c r="L86" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
@@ -5316,13 +5316,13 @@
         <v>2</v>
       </c>
       <c r="J87" t="s">
+        <v>499</v>
+      </c>
+      <c r="K87" t="s">
+        <v>503</v>
+      </c>
+      <c r="L87" t="s">
         <v>500</v>
-      </c>
-      <c r="K87" t="s">
-        <v>504</v>
-      </c>
-      <c r="L87" t="s">
-        <v>501</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
@@ -5354,13 +5354,13 @@
         <v>2</v>
       </c>
       <c r="J88" t="s">
+        <v>504</v>
+      </c>
+      <c r="K88" t="s">
         <v>505</v>
       </c>
-      <c r="K88" t="s">
+      <c r="L88" t="s">
         <v>506</v>
-      </c>
-      <c r="L88" t="s">
-        <v>507</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
@@ -5392,13 +5392,13 @@
         <v>1</v>
       </c>
       <c r="J89" t="s">
+        <v>507</v>
+      </c>
+      <c r="K89" t="s">
         <v>508</v>
       </c>
-      <c r="K89" t="s">
+      <c r="L89" t="s">
         <v>509</v>
-      </c>
-      <c r="L89" t="s">
-        <v>510</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
@@ -5430,18 +5430,18 @@
         <v>1</v>
       </c>
       <c r="J90" t="s">
+        <v>510</v>
+      </c>
+      <c r="K90" t="s">
         <v>511</v>
       </c>
-      <c r="K90" t="s">
+      <c r="L90" t="s">
         <v>512</v>
-      </c>
-      <c r="L90" t="s">
-        <v>513</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B91" t="s">
         <v>19</v>
@@ -5468,10 +5468,10 @@
         <v>2</v>
       </c>
       <c r="J91" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="K91" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="L91" t="s">
         <v>473</v>

--- a/pesquisador.xlsx
+++ b/pesquisador.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\prog\concurso_embrapa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BF469F9-E4F6-47C7-8D25-9C1D33483EBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76D3F22F-2B9D-464E-92B1-59D1B6E23527}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="1860" yWindow="1860" windowWidth="15375" windowHeight="7995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -134,9 +134,6 @@
     <t>EMBRAPA AMAZÔNIA OCIDENTAL – Manaus/AM; EMBRAPA COCAIS – São Luís/MA; EMBRAPA RORAIMA – Boa Vista/RR; EMBRAPA SEMIÁRIDO – Petrolina/PE</t>
   </si>
   <si>
-    <t>EMBRAPA CAPRINOS E OVINOS – Sobral/CE; EMBRAPA CAPRINOS E OVINOS – Campina Grande; EMBRAPA PECUÁRIA SUL – Bagé/RS; EMBRAPA SUÍNOS E AVES – Concórdia/SC</t>
-  </si>
-  <si>
     <t>EMBRAPA RONDÔNIA – Ouro Preto do Oeste/RO; EMBRAPA RORAIMA – Boa Vista/RR</t>
   </si>
   <si>
@@ -695,9 +692,6 @@
     <t>Biologia Avançada</t>
   </si>
   <si>
-    <t>EMBRAPA AGRICULTURA DIGITAL – Campinas/SP; EMBRAPA AGROSSILVIPASTORIL – Sinop/MT; EMBRAPA ARROZ E FEIJÃO – Santo Antônio de Goiás/GO; EMBRAPA HORTALIÇAS – Brasília/DF; EMBRAPA MILHO E SORGO – Sete Lagoas/MG; EMBRAPA PECUÁRIA SUL – Bagé/RS; EMBRAPA RECURSOS GENÉTICOS E BIOTECNOLOGIA – Brasília/DF; EMBRAPA SEMIÁRIDO – Petrolina/PE</t>
-  </si>
-  <si>
     <t>40000345</t>
   </si>
   <si>
@@ -902,9 +896,6 @@
     <t>Engenharias</t>
   </si>
   <si>
-    <t>Sociologia e Automação e Mecanização</t>
-  </si>
-  <si>
     <t>EMBRAPA AGROINDÚSTRIA TROPICAL – Fortaleza/CE; EMBRAPA ALGODÃO – Campina Grande/PB; EMBRAPA AMAZÔNIA OCIDENTAL – Manaus/AM; EMBRAPA AMAZÔNIA ORIENTAL – Belém/PA; EMBRAPA CAPRINOS E OVINOS – Sobral/CE; EMBRAPA CERRADOS – Planaltina/DF; EMBRAPA GADO DE LEITE – Juiz de Fora/MG; EMBRAPA MILHO E SORGO – Sete Lagoas/MG; EMBRAPA SEMIÁRIDO – Petrolina/PE</t>
   </si>
   <si>
@@ -1635,6 +1626,15 @@
   </si>
   <si>
     <t>Ciências Exatas; Engenharia Agrícola; Agronomia; Zootecnia; Medicina Veterinária; Ciências Agrárias; Engenharia Elétrica; Engenharia da Computação; Ciência da Computação; Engenharia de Sistemas; Computação Aplicada; Matemática Aplicada; Engenharia Mecânica; Engenharia da Produção; Engenharia de Automação; Engenharia de Bioprocessos; Engenharia de Biossistemas; Engenharia de Controle e Automação; Engenharia de Instrumentação; Automação e Robótica; Engenharia de Robôs; Engenharia de Sistemas Ciber Físicos; Engenharia Mecatrônica</t>
+  </si>
+  <si>
+    <t>Automação e Mecanização</t>
+  </si>
+  <si>
+    <t>EMBRAPA AGRICULTURA DIGITAL – Campinas/SP; EMBRAPA AGROSSILVIPASTORIL – Sinop/MT; EMBRAPA AMAZÔNIA OCIDENTAL – Manaus/AM; EMBRAPA ARROZ E FEIJÃO – Santo Antônio de Goiás/GO; EMBRAPA HORTALIÇAS – Brasília/DF; EMBRAPA MILHO E SORGO – Sete Lagoas/MG; EMBRAPA PECUÁRIA SUL – Bagé/RS; EMBRAPA RECURSOS GENÉTICOS E BIOTECNOLOGIA – Brasília/DF; EMBRAPA SEMIÁRIDO – Petrolina/PE</t>
+  </si>
+  <si>
+    <t>EMBRAPA CAPRINOS E OVINOS – Sobral/CE; EMBRAPA CAPRINOS E OVINOS – Campina Grande/PB; EMBRAPA PECUÁRIA SUL – Bagé/RS; EMBRAPA SUÍNOS E AVES – Concórdia/SC</t>
   </si>
 </sst>
 </file>
@@ -2010,8 +2010,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
-      <selection activeCell="J94" sqref="J94"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E91" sqref="E2:E91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2048,13 +2048,13 @@
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -2086,13 +2086,13 @@
         <v>5</v>
       </c>
       <c r="J2" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="K2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L2" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -2109,7 +2109,7 @@
         <v>23</v>
       </c>
       <c r="E3" t="s">
-        <v>33</v>
+        <v>533</v>
       </c>
       <c r="F3">
         <v>3</v>
@@ -2124,13 +2124,13 @@
         <v>5</v>
       </c>
       <c r="J3" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="K3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L3" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -2147,28 +2147,28 @@
         <v>24</v>
       </c>
       <c r="E4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F4">
         <v>2</v>
       </c>
       <c r="G4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I4">
         <v>2</v>
       </c>
       <c r="J4" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="K4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L4" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -2185,28 +2185,28 @@
         <v>25</v>
       </c>
       <c r="E5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I5">
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="K5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L5" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -2223,13 +2223,13 @@
         <v>26</v>
       </c>
       <c r="E6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F6">
         <v>2</v>
       </c>
       <c r="G6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -2238,13 +2238,13 @@
         <v>3</v>
       </c>
       <c r="J6" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="K6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L6" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -2261,13 +2261,13 @@
         <v>27</v>
       </c>
       <c r="E7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F7">
         <v>2</v>
       </c>
       <c r="G7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H7">
         <v>1</v>
@@ -2276,13 +2276,13 @@
         <v>3</v>
       </c>
       <c r="J7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K7" t="s">
         <v>51</v>
       </c>
-      <c r="K7" t="s">
-        <v>52</v>
-      </c>
       <c r="L7" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -2299,28 +2299,28 @@
         <v>28</v>
       </c>
       <c r="E8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F8">
         <v>2</v>
       </c>
       <c r="G8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I8">
         <v>2</v>
       </c>
       <c r="J8" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="K8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L8" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -2337,13 +2337,13 @@
         <v>29</v>
       </c>
       <c r="E9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F9">
         <v>3</v>
       </c>
       <c r="G9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -2352,13 +2352,13 @@
         <v>4</v>
       </c>
       <c r="J9" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L9" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -2375,28 +2375,28 @@
         <v>30</v>
       </c>
       <c r="E10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I10">
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="K10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L10" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -2413,13 +2413,13 @@
         <v>31</v>
       </c>
       <c r="E11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F11">
         <v>2</v>
       </c>
       <c r="G11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -2428,18 +2428,18 @@
         <v>3</v>
       </c>
       <c r="J11" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="K11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L11" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B12" t="s">
         <v>19</v>
@@ -2448,10 +2448,10 @@
         <v>21</v>
       </c>
       <c r="D12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12" t="s">
         <v>58</v>
-      </c>
-      <c r="E12" t="s">
-        <v>59</v>
       </c>
       <c r="F12">
         <v>12</v>
@@ -2466,18 +2466,18 @@
         <v>17</v>
       </c>
       <c r="J12" t="s">
+        <v>71</v>
+      </c>
+      <c r="K12" t="s">
         <v>72</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>73</v>
-      </c>
-      <c r="L12" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B13" t="s">
         <v>19</v>
@@ -2486,16 +2486,16 @@
         <v>21</v>
       </c>
       <c r="D13" t="s">
+        <v>60</v>
+      </c>
+      <c r="E13" t="s">
         <v>61</v>
-      </c>
-      <c r="E13" t="s">
-        <v>62</v>
       </c>
       <c r="F13">
         <v>2</v>
       </c>
       <c r="G13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H13">
         <v>1</v>
@@ -2504,18 +2504,18 @@
         <v>3</v>
       </c>
       <c r="J13" t="s">
+        <v>74</v>
+      </c>
+      <c r="K13" t="s">
         <v>75</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>76</v>
-      </c>
-      <c r="L13" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B14" t="s">
         <v>19</v>
@@ -2524,36 +2524,36 @@
         <v>21</v>
       </c>
       <c r="D14" t="s">
+        <v>63</v>
+      </c>
+      <c r="E14" t="s">
         <v>64</v>
       </c>
-      <c r="E14" t="s">
-        <v>65</v>
-      </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I14">
         <v>1</v>
       </c>
       <c r="J14" t="s">
+        <v>77</v>
+      </c>
+      <c r="K14" t="s">
         <v>78</v>
       </c>
-      <c r="K14" t="s">
+      <c r="L14" t="s">
         <v>79</v>
-      </c>
-      <c r="L14" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B15" t="s">
         <v>19</v>
@@ -2562,10 +2562,10 @@
         <v>21</v>
       </c>
       <c r="D15" t="s">
+        <v>66</v>
+      </c>
+      <c r="E15" t="s">
         <v>67</v>
-      </c>
-      <c r="E15" t="s">
-        <v>68</v>
       </c>
       <c r="F15">
         <v>7</v>
@@ -2580,18 +2580,18 @@
         <v>11</v>
       </c>
       <c r="J15" t="s">
+        <v>80</v>
+      </c>
+      <c r="K15" t="s">
         <v>81</v>
       </c>
-      <c r="K15" t="s">
+      <c r="L15" t="s">
         <v>82</v>
-      </c>
-      <c r="L15" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B16" t="s">
         <v>19</v>
@@ -2600,16 +2600,16 @@
         <v>21</v>
       </c>
       <c r="D16" t="s">
+        <v>69</v>
+      </c>
+      <c r="E16" t="s">
         <v>70</v>
-      </c>
-      <c r="E16" t="s">
-        <v>71</v>
       </c>
       <c r="F16">
         <v>3</v>
       </c>
       <c r="G16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -2618,18 +2618,18 @@
         <v>4</v>
       </c>
       <c r="J16" t="s">
+        <v>83</v>
+      </c>
+      <c r="K16" t="s">
         <v>84</v>
       </c>
-      <c r="K16" t="s">
+      <c r="L16" t="s">
         <v>85</v>
-      </c>
-      <c r="L16" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B17" t="s">
         <v>19</v>
@@ -2638,16 +2638,16 @@
         <v>21</v>
       </c>
       <c r="D17" t="s">
+        <v>102</v>
+      </c>
+      <c r="E17" t="s">
         <v>103</v>
-      </c>
-      <c r="E17" t="s">
-        <v>104</v>
       </c>
       <c r="F17">
         <v>2</v>
       </c>
       <c r="G17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H17">
         <v>1</v>
@@ -2656,18 +2656,18 @@
         <v>3</v>
       </c>
       <c r="J17" t="s">
+        <v>86</v>
+      </c>
+      <c r="K17" t="s">
         <v>87</v>
       </c>
-      <c r="K17" t="s">
+      <c r="L17" t="s">
         <v>88</v>
-      </c>
-      <c r="L17" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B18" t="s">
         <v>19</v>
@@ -2676,10 +2676,10 @@
         <v>21</v>
       </c>
       <c r="D18" t="s">
+        <v>105</v>
+      </c>
+      <c r="E18" t="s">
         <v>106</v>
-      </c>
-      <c r="E18" t="s">
-        <v>107</v>
       </c>
       <c r="F18">
         <v>6</v>
@@ -2694,18 +2694,18 @@
         <v>10</v>
       </c>
       <c r="J18" t="s">
+        <v>89</v>
+      </c>
+      <c r="K18" t="s">
         <v>90</v>
       </c>
-      <c r="K18" t="s">
+      <c r="L18" t="s">
         <v>91</v>
-      </c>
-      <c r="L18" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B19" t="s">
         <v>19</v>
@@ -2714,10 +2714,10 @@
         <v>21</v>
       </c>
       <c r="D19" t="s">
+        <v>108</v>
+      </c>
+      <c r="E19" t="s">
         <v>109</v>
-      </c>
-      <c r="E19" t="s">
-        <v>110</v>
       </c>
       <c r="F19">
         <v>4</v>
@@ -2732,18 +2732,18 @@
         <v>6</v>
       </c>
       <c r="J19" t="s">
+        <v>92</v>
+      </c>
+      <c r="K19" t="s">
         <v>93</v>
       </c>
-      <c r="K19" t="s">
+      <c r="L19" t="s">
         <v>94</v>
-      </c>
-      <c r="L19" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B20" t="s">
         <v>19</v>
@@ -2752,10 +2752,10 @@
         <v>21</v>
       </c>
       <c r="D20" t="s">
+        <v>111</v>
+      </c>
+      <c r="E20" t="s">
         <v>112</v>
-      </c>
-      <c r="E20" t="s">
-        <v>113</v>
       </c>
       <c r="F20">
         <v>5</v>
@@ -2770,18 +2770,18 @@
         <v>8</v>
       </c>
       <c r="J20" t="s">
+        <v>95</v>
+      </c>
+      <c r="K20" t="s">
         <v>96</v>
       </c>
-      <c r="K20" t="s">
+      <c r="L20" t="s">
         <v>97</v>
-      </c>
-      <c r="L20" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B21" t="s">
         <v>19</v>
@@ -2790,16 +2790,16 @@
         <v>21</v>
       </c>
       <c r="D21" t="s">
+        <v>114</v>
+      </c>
+      <c r="E21" t="s">
         <v>115</v>
-      </c>
-      <c r="E21" t="s">
-        <v>116</v>
       </c>
       <c r="F21">
         <v>3</v>
       </c>
       <c r="G21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H21">
         <v>1</v>
@@ -2808,18 +2808,18 @@
         <v>4</v>
       </c>
       <c r="J21" t="s">
+        <v>98</v>
+      </c>
+      <c r="K21" t="s">
         <v>99</v>
       </c>
-      <c r="K21" t="s">
+      <c r="L21" t="s">
         <v>100</v>
-      </c>
-      <c r="L21" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B22" t="s">
         <v>19</v>
@@ -2828,10 +2828,10 @@
         <v>21</v>
       </c>
       <c r="D22" t="s">
+        <v>117</v>
+      </c>
+      <c r="E22" t="s">
         <v>118</v>
-      </c>
-      <c r="E22" t="s">
-        <v>119</v>
       </c>
       <c r="F22">
         <v>4</v>
@@ -2846,18 +2846,18 @@
         <v>6</v>
       </c>
       <c r="J22" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="K22" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="L22" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B23" t="s">
         <v>19</v>
@@ -2866,10 +2866,10 @@
         <v>21</v>
       </c>
       <c r="D23" t="s">
+        <v>120</v>
+      </c>
+      <c r="E23" t="s">
         <v>121</v>
-      </c>
-      <c r="E23" t="s">
-        <v>122</v>
       </c>
       <c r="F23">
         <v>11</v>
@@ -2884,18 +2884,18 @@
         <v>16</v>
       </c>
       <c r="J23" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="K23" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="L23" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B24" t="s">
         <v>19</v>
@@ -2904,16 +2904,16 @@
         <v>21</v>
       </c>
       <c r="D24" t="s">
+        <v>123</v>
+      </c>
+      <c r="E24" t="s">
         <v>124</v>
-      </c>
-      <c r="E24" t="s">
-        <v>125</v>
       </c>
       <c r="F24">
         <v>3</v>
       </c>
       <c r="G24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H24">
         <v>1</v>
@@ -2922,18 +2922,18 @@
         <v>4</v>
       </c>
       <c r="J24" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="K24" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="L24" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B25" t="s">
         <v>19</v>
@@ -2942,36 +2942,36 @@
         <v>21</v>
       </c>
       <c r="D25" t="s">
+        <v>126</v>
+      </c>
+      <c r="E25" t="s">
         <v>127</v>
       </c>
-      <c r="E25" t="s">
-        <v>128</v>
-      </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I25">
         <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="K25" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="L25" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B26" t="s">
         <v>19</v>
@@ -2980,16 +2980,16 @@
         <v>21</v>
       </c>
       <c r="D26" t="s">
+        <v>129</v>
+      </c>
+      <c r="E26" t="s">
         <v>130</v>
-      </c>
-      <c r="E26" t="s">
-        <v>131</v>
       </c>
       <c r="F26">
         <v>3</v>
       </c>
       <c r="G26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H26">
         <v>1</v>
@@ -2998,18 +2998,18 @@
         <v>4</v>
       </c>
       <c r="J26" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="K26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L26" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B27" t="s">
         <v>19</v>
@@ -3018,16 +3018,16 @@
         <v>21</v>
       </c>
       <c r="D27" t="s">
+        <v>132</v>
+      </c>
+      <c r="E27" t="s">
         <v>133</v>
-      </c>
-      <c r="E27" t="s">
-        <v>134</v>
       </c>
       <c r="F27">
         <v>3</v>
       </c>
       <c r="G27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H27">
         <v>1</v>
@@ -3036,18 +3036,18 @@
         <v>4</v>
       </c>
       <c r="J27" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="K27" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="L27" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B28" t="s">
         <v>19</v>
@@ -3056,16 +3056,16 @@
         <v>21</v>
       </c>
       <c r="D28" t="s">
+        <v>135</v>
+      </c>
+      <c r="E28" t="s">
         <v>136</v>
-      </c>
-      <c r="E28" t="s">
-        <v>137</v>
       </c>
       <c r="F28">
         <v>2</v>
       </c>
       <c r="G28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H28">
         <v>1</v>
@@ -3074,18 +3074,18 @@
         <v>3</v>
       </c>
       <c r="J28" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="K28" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="L28" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B29" t="s">
         <v>19</v>
@@ -3094,16 +3094,16 @@
         <v>21</v>
       </c>
       <c r="D29" t="s">
+        <v>138</v>
+      </c>
+      <c r="E29" t="s">
         <v>139</v>
       </c>
-      <c r="E29" t="s">
-        <v>140</v>
-      </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H29">
         <v>1</v>
@@ -3112,18 +3112,18 @@
         <v>2</v>
       </c>
       <c r="J29" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="K29" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="L29" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B30" t="s">
         <v>19</v>
@@ -3132,36 +3132,36 @@
         <v>21</v>
       </c>
       <c r="D30" t="s">
+        <v>141</v>
+      </c>
+      <c r="E30" t="s">
         <v>142</v>
       </c>
-      <c r="E30" t="s">
-        <v>143</v>
-      </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H30" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I30">
         <v>1</v>
       </c>
       <c r="J30" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="K30" t="s">
+        <v>333</v>
+      </c>
+      <c r="L30" t="s">
         <v>336</v>
-      </c>
-      <c r="L30" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B31" t="s">
         <v>19</v>
@@ -3170,10 +3170,10 @@
         <v>21</v>
       </c>
       <c r="D31" t="s">
+        <v>144</v>
+      </c>
+      <c r="E31" t="s">
         <v>145</v>
-      </c>
-      <c r="E31" t="s">
-        <v>146</v>
       </c>
       <c r="F31">
         <v>3</v>
@@ -3188,18 +3188,18 @@
         <v>5</v>
       </c>
       <c r="J31" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="K31" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="L31" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B32" t="s">
         <v>19</v>
@@ -3208,36 +3208,36 @@
         <v>21</v>
       </c>
       <c r="D32" t="s">
+        <v>147</v>
+      </c>
+      <c r="E32" t="s">
         <v>148</v>
       </c>
-      <c r="E32" t="s">
-        <v>149</v>
-      </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I32">
         <v>1</v>
       </c>
       <c r="J32" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="K32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L32" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B33" t="s">
         <v>19</v>
@@ -3246,16 +3246,16 @@
         <v>21</v>
       </c>
       <c r="D33" t="s">
+        <v>150</v>
+      </c>
+      <c r="E33" t="s">
         <v>151</v>
       </c>
-      <c r="E33" t="s">
-        <v>152</v>
-      </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H33">
         <v>1</v>
@@ -3264,18 +3264,18 @@
         <v>2</v>
       </c>
       <c r="J33" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="K33" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="L33" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B34" t="s">
         <v>19</v>
@@ -3284,16 +3284,16 @@
         <v>21</v>
       </c>
       <c r="D34" t="s">
+        <v>153</v>
+      </c>
+      <c r="E34" t="s">
         <v>154</v>
       </c>
-      <c r="E34" t="s">
-        <v>155</v>
-      </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H34">
         <v>1</v>
@@ -3302,18 +3302,18 @@
         <v>2</v>
       </c>
       <c r="J34" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="K34" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="L34" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B35" t="s">
         <v>19</v>
@@ -3322,16 +3322,16 @@
         <v>21</v>
       </c>
       <c r="D35" t="s">
+        <v>156</v>
+      </c>
+      <c r="E35" t="s">
         <v>157</v>
-      </c>
-      <c r="E35" t="s">
-        <v>158</v>
       </c>
       <c r="F35">
         <v>2</v>
       </c>
       <c r="G35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H35">
         <v>1</v>
@@ -3340,18 +3340,18 @@
         <v>3</v>
       </c>
       <c r="J35" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="K35" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="L35" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B36" t="s">
         <v>19</v>
@@ -3360,10 +3360,10 @@
         <v>21</v>
       </c>
       <c r="D36" t="s">
+        <v>159</v>
+      </c>
+      <c r="E36" t="s">
         <v>160</v>
-      </c>
-      <c r="E36" t="s">
-        <v>161</v>
       </c>
       <c r="F36">
         <v>5</v>
@@ -3378,18 +3378,18 @@
         <v>7</v>
       </c>
       <c r="J36" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="K36" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="L36" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B37" t="s">
         <v>19</v>
@@ -3398,16 +3398,16 @@
         <v>21</v>
       </c>
       <c r="D37" t="s">
+        <v>162</v>
+      </c>
+      <c r="E37" t="s">
         <v>163</v>
-      </c>
-      <c r="E37" t="s">
-        <v>164</v>
       </c>
       <c r="F37">
         <v>3</v>
       </c>
       <c r="G37" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H37">
         <v>1</v>
@@ -3416,18 +3416,18 @@
         <v>4</v>
       </c>
       <c r="J37" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="K37" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="L37" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B38" t="s">
         <v>19</v>
@@ -3436,36 +3436,36 @@
         <v>21</v>
       </c>
       <c r="D38" t="s">
+        <v>165</v>
+      </c>
+      <c r="E38" t="s">
         <v>166</v>
       </c>
-      <c r="E38" t="s">
-        <v>167</v>
-      </c>
       <c r="F38">
         <v>1</v>
       </c>
       <c r="G38" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H38" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I38">
         <v>1</v>
       </c>
       <c r="J38" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="K38" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="L38" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B39" t="s">
         <v>19</v>
@@ -3474,16 +3474,16 @@
         <v>21</v>
       </c>
       <c r="D39" t="s">
+        <v>168</v>
+      </c>
+      <c r="E39" t="s">
         <v>169</v>
-      </c>
-      <c r="E39" t="s">
-        <v>170</v>
       </c>
       <c r="F39">
         <v>2</v>
       </c>
       <c r="G39" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H39">
         <v>1</v>
@@ -3492,18 +3492,18 @@
         <v>3</v>
       </c>
       <c r="J39" t="s">
+        <v>356</v>
+      </c>
+      <c r="K39" t="s">
         <v>359</v>
       </c>
-      <c r="K39" t="s">
-        <v>362</v>
-      </c>
       <c r="L39" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B40" t="s">
         <v>19</v>
@@ -3512,16 +3512,16 @@
         <v>21</v>
       </c>
       <c r="D40" t="s">
+        <v>171</v>
+      </c>
+      <c r="E40" t="s">
         <v>172</v>
-      </c>
-      <c r="E40" t="s">
-        <v>173</v>
       </c>
       <c r="F40">
         <v>2</v>
       </c>
       <c r="G40" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H40">
         <v>1</v>
@@ -3530,18 +3530,18 @@
         <v>3</v>
       </c>
       <c r="J40" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="K40" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="L40" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B41" t="s">
         <v>19</v>
@@ -3550,10 +3550,10 @@
         <v>21</v>
       </c>
       <c r="D41" t="s">
+        <v>174</v>
+      </c>
+      <c r="E41" t="s">
         <v>175</v>
-      </c>
-      <c r="E41" t="s">
-        <v>176</v>
       </c>
       <c r="F41">
         <v>14</v>
@@ -3568,18 +3568,18 @@
         <v>20</v>
       </c>
       <c r="J41" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="K41" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="L41" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B42" t="s">
         <v>19</v>
@@ -3588,36 +3588,36 @@
         <v>21</v>
       </c>
       <c r="D42" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E42" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F42">
         <v>1</v>
       </c>
       <c r="G42" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H42" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I42">
         <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="K42" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="L42" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B43" t="s">
         <v>19</v>
@@ -3626,16 +3626,16 @@
         <v>21</v>
       </c>
       <c r="D43" t="s">
+        <v>179</v>
+      </c>
+      <c r="E43" t="s">
         <v>180</v>
-      </c>
-      <c r="E43" t="s">
-        <v>181</v>
       </c>
       <c r="F43">
         <v>2</v>
       </c>
       <c r="G43" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H43">
         <v>1</v>
@@ -3644,18 +3644,18 @@
         <v>3</v>
       </c>
       <c r="J43" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="K43" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="L43" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B44" t="s">
         <v>19</v>
@@ -3664,16 +3664,16 @@
         <v>21</v>
       </c>
       <c r="D44" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E44" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F44">
         <v>2</v>
       </c>
       <c r="G44" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H44">
         <v>1</v>
@@ -3682,18 +3682,18 @@
         <v>3</v>
       </c>
       <c r="J44" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="K44" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="L44" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B45" t="s">
         <v>19</v>
@@ -3702,36 +3702,36 @@
         <v>21</v>
       </c>
       <c r="D45" t="s">
+        <v>184</v>
+      </c>
+      <c r="E45" t="s">
         <v>185</v>
       </c>
-      <c r="E45" t="s">
-        <v>186</v>
-      </c>
       <c r="F45">
         <v>1</v>
       </c>
       <c r="G45" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H45" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I45">
         <v>1</v>
       </c>
       <c r="J45" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="K45" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="L45" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B46" t="s">
         <v>19</v>
@@ -3740,10 +3740,10 @@
         <v>21</v>
       </c>
       <c r="D46" t="s">
+        <v>187</v>
+      </c>
+      <c r="E46" t="s">
         <v>188</v>
-      </c>
-      <c r="E46" t="s">
-        <v>189</v>
       </c>
       <c r="F46">
         <v>3</v>
@@ -3758,18 +3758,18 @@
         <v>5</v>
       </c>
       <c r="J46" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="K46" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="L46" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B47" t="s">
         <v>19</v>
@@ -3778,36 +3778,36 @@
         <v>21</v>
       </c>
       <c r="D47" t="s">
+        <v>190</v>
+      </c>
+      <c r="E47" t="s">
         <v>191</v>
       </c>
-      <c r="E47" t="s">
-        <v>192</v>
-      </c>
       <c r="F47">
         <v>1</v>
       </c>
       <c r="G47" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H47" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I47">
         <v>1</v>
       </c>
       <c r="J47" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="K47" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="L47" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B48" t="s">
         <v>19</v>
@@ -3816,36 +3816,36 @@
         <v>21</v>
       </c>
       <c r="D48" t="s">
+        <v>193</v>
+      </c>
+      <c r="E48" t="s">
         <v>194</v>
       </c>
-      <c r="E48" t="s">
-        <v>195</v>
-      </c>
       <c r="F48">
         <v>1</v>
       </c>
       <c r="G48" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H48" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I48">
         <v>1</v>
       </c>
       <c r="J48" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="K48" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="L48" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B49" t="s">
         <v>19</v>
@@ -3854,16 +3854,16 @@
         <v>21</v>
       </c>
       <c r="D49" t="s">
+        <v>196</v>
+      </c>
+      <c r="E49" t="s">
         <v>197</v>
-      </c>
-      <c r="E49" t="s">
-        <v>198</v>
       </c>
       <c r="F49">
         <v>2</v>
       </c>
       <c r="G49" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H49">
         <v>1</v>
@@ -3872,18 +3872,18 @@
         <v>3</v>
       </c>
       <c r="J49" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="K49" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="L49" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B50" t="s">
         <v>19</v>
@@ -3892,36 +3892,36 @@
         <v>21</v>
       </c>
       <c r="D50" t="s">
+        <v>199</v>
+      </c>
+      <c r="E50" t="s">
         <v>200</v>
       </c>
-      <c r="E50" t="s">
-        <v>201</v>
-      </c>
       <c r="F50">
         <v>1</v>
       </c>
       <c r="G50" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H50" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I50">
         <v>1</v>
       </c>
       <c r="J50" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="K50" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="L50" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B51" t="s">
         <v>19</v>
@@ -3930,36 +3930,36 @@
         <v>21</v>
       </c>
       <c r="D51" t="s">
+        <v>202</v>
+      </c>
+      <c r="E51" t="s">
         <v>203</v>
       </c>
-      <c r="E51" t="s">
-        <v>204</v>
-      </c>
       <c r="F51">
         <v>1</v>
       </c>
       <c r="G51" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H51" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I51">
         <v>1</v>
       </c>
       <c r="J51" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="K51" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="L51" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B52" t="s">
         <v>19</v>
@@ -3968,10 +3968,10 @@
         <v>21</v>
       </c>
       <c r="D52" t="s">
+        <v>205</v>
+      </c>
+      <c r="E52" t="s">
         <v>206</v>
-      </c>
-      <c r="E52" t="s">
-        <v>207</v>
       </c>
       <c r="F52">
         <v>3</v>
@@ -3986,18 +3986,18 @@
         <v>5</v>
       </c>
       <c r="J52" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="K52" t="s">
+        <v>397</v>
+      </c>
+      <c r="L52" t="s">
         <v>400</v>
-      </c>
-      <c r="L52" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B53" t="s">
         <v>19</v>
@@ -4006,16 +4006,16 @@
         <v>21</v>
       </c>
       <c r="D53" t="s">
+        <v>208</v>
+      </c>
+      <c r="E53" t="s">
         <v>209</v>
-      </c>
-      <c r="E53" t="s">
-        <v>210</v>
       </c>
       <c r="F53">
         <v>2</v>
       </c>
       <c r="G53" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H53">
         <v>1</v>
@@ -4024,334 +4024,334 @@
         <v>3</v>
       </c>
       <c r="J53" t="s">
+        <v>398</v>
+      </c>
+      <c r="K53" t="s">
+        <v>54</v>
+      </c>
+      <c r="L53" t="s">
         <v>401</v>
-      </c>
-      <c r="K53" t="s">
-        <v>55</v>
-      </c>
-      <c r="L53" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
+        <v>210</v>
+      </c>
+      <c r="B54" t="s">
+        <v>19</v>
+      </c>
+      <c r="C54" t="s">
         <v>211</v>
       </c>
-      <c r="B54" t="s">
-        <v>19</v>
-      </c>
-      <c r="C54" t="s">
+      <c r="D54" t="s">
         <v>212</v>
       </c>
-      <c r="D54" t="s">
+      <c r="E54" t="s">
         <v>213</v>
       </c>
-      <c r="E54" t="s">
-        <v>214</v>
-      </c>
       <c r="F54">
         <v>1</v>
       </c>
       <c r="G54" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H54" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I54">
         <v>1</v>
       </c>
       <c r="J54" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="K54" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="L54" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
+        <v>214</v>
+      </c>
+      <c r="B55" t="s">
+        <v>19</v>
+      </c>
+      <c r="C55" t="s">
         <v>215</v>
       </c>
-      <c r="B55" t="s">
-        <v>19</v>
-      </c>
-      <c r="C55" t="s">
+      <c r="D55" t="s">
         <v>216</v>
       </c>
-      <c r="D55" t="s">
-        <v>217</v>
-      </c>
       <c r="E55" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F55">
         <v>1</v>
       </c>
       <c r="G55" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H55" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I55">
         <v>1</v>
       </c>
       <c r="J55" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="K55" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="L55" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
+        <v>217</v>
+      </c>
+      <c r="B56" t="s">
+        <v>19</v>
+      </c>
+      <c r="C56" t="s">
+        <v>215</v>
+      </c>
+      <c r="D56" t="s">
         <v>218</v>
       </c>
-      <c r="B56" t="s">
-        <v>19</v>
-      </c>
-      <c r="C56" t="s">
-        <v>216</v>
-      </c>
-      <c r="D56" t="s">
-        <v>219</v>
-      </c>
       <c r="E56" t="s">
-        <v>220</v>
+        <v>532</v>
       </c>
       <c r="F56">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="G56">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="H56">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="I56">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="J56" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="K56" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="L56" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
+        <v>219</v>
+      </c>
+      <c r="B57" t="s">
+        <v>19</v>
+      </c>
+      <c r="C57" t="s">
+        <v>215</v>
+      </c>
+      <c r="D57" t="s">
+        <v>220</v>
+      </c>
+      <c r="E57" t="s">
         <v>221</v>
-      </c>
-      <c r="B57" t="s">
-        <v>19</v>
-      </c>
-      <c r="C57" t="s">
-        <v>216</v>
-      </c>
-      <c r="D57" t="s">
-        <v>222</v>
-      </c>
-      <c r="E57" t="s">
-        <v>223</v>
       </c>
       <c r="F57">
         <v>2</v>
       </c>
       <c r="G57" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H57" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I57">
         <v>2</v>
       </c>
       <c r="J57" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="K57" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="L57" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
+        <v>222</v>
+      </c>
+      <c r="B58" t="s">
+        <v>19</v>
+      </c>
+      <c r="C58" t="s">
+        <v>215</v>
+      </c>
+      <c r="D58" t="s">
+        <v>223</v>
+      </c>
+      <c r="E58" t="s">
         <v>224</v>
       </c>
-      <c r="B58" t="s">
-        <v>19</v>
-      </c>
-      <c r="C58" t="s">
-        <v>216</v>
-      </c>
-      <c r="D58" t="s">
-        <v>225</v>
-      </c>
-      <c r="E58" t="s">
-        <v>226</v>
-      </c>
       <c r="F58">
         <v>1</v>
       </c>
       <c r="G58" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H58" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I58">
         <v>1</v>
       </c>
       <c r="J58" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="K58" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="L58" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
+        <v>225</v>
+      </c>
+      <c r="B59" t="s">
+        <v>19</v>
+      </c>
+      <c r="C59" t="s">
+        <v>215</v>
+      </c>
+      <c r="D59" t="s">
+        <v>226</v>
+      </c>
+      <c r="E59" t="s">
         <v>227</v>
       </c>
-      <c r="B59" t="s">
-        <v>19</v>
-      </c>
-      <c r="C59" t="s">
-        <v>216</v>
-      </c>
-      <c r="D59" t="s">
-        <v>228</v>
-      </c>
-      <c r="E59" t="s">
-        <v>229</v>
-      </c>
       <c r="F59">
         <v>1</v>
       </c>
       <c r="G59" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H59" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I59">
         <v>1</v>
       </c>
       <c r="J59" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="K59" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="L59" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B60" t="s">
         <v>19</v>
       </c>
       <c r="C60" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D60" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E60" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F60">
         <v>1</v>
       </c>
       <c r="G60" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H60" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I60">
         <v>1</v>
       </c>
       <c r="J60" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="K60" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="L60" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
+        <v>230</v>
+      </c>
+      <c r="B61" t="s">
+        <v>19</v>
+      </c>
+      <c r="C61" t="s">
+        <v>215</v>
+      </c>
+      <c r="D61" t="s">
+        <v>231</v>
+      </c>
+      <c r="E61" t="s">
         <v>232</v>
       </c>
-      <c r="B61" t="s">
-        <v>19</v>
-      </c>
-      <c r="C61" t="s">
-        <v>216</v>
-      </c>
-      <c r="D61" t="s">
-        <v>233</v>
-      </c>
-      <c r="E61" t="s">
-        <v>234</v>
-      </c>
       <c r="F61">
         <v>1</v>
       </c>
       <c r="G61" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H61" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I61">
         <v>1</v>
       </c>
       <c r="J61" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="K61" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="L61" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
+        <v>233</v>
+      </c>
+      <c r="B62" t="s">
+        <v>19</v>
+      </c>
+      <c r="C62" t="s">
+        <v>215</v>
+      </c>
+      <c r="D62" t="s">
+        <v>234</v>
+      </c>
+      <c r="E62" t="s">
         <v>235</v>
-      </c>
-      <c r="B62" t="s">
-        <v>19</v>
-      </c>
-      <c r="C62" t="s">
-        <v>216</v>
-      </c>
-      <c r="D62" t="s">
-        <v>236</v>
-      </c>
-      <c r="E62" t="s">
-        <v>237</v>
       </c>
       <c r="F62">
         <v>8</v>
@@ -4366,36 +4366,36 @@
         <v>12</v>
       </c>
       <c r="J62" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="K62" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L62" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
+        <v>236</v>
+      </c>
+      <c r="B63" t="s">
+        <v>19</v>
+      </c>
+      <c r="C63" t="s">
+        <v>215</v>
+      </c>
+      <c r="D63" t="s">
+        <v>237</v>
+      </c>
+      <c r="E63" t="s">
         <v>238</v>
       </c>
-      <c r="B63" t="s">
-        <v>19</v>
-      </c>
-      <c r="C63" t="s">
-        <v>216</v>
-      </c>
-      <c r="D63" t="s">
-        <v>239</v>
-      </c>
-      <c r="E63" t="s">
-        <v>240</v>
-      </c>
       <c r="F63">
         <v>1</v>
       </c>
       <c r="G63" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H63">
         <v>1</v>
@@ -4404,30 +4404,30 @@
         <v>2</v>
       </c>
       <c r="J63" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="K63" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="L63" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
+        <v>239</v>
+      </c>
+      <c r="B64" t="s">
+        <v>19</v>
+      </c>
+      <c r="C64" t="s">
+        <v>215</v>
+      </c>
+      <c r="D64" t="s">
+        <v>240</v>
+      </c>
+      <c r="E64" t="s">
         <v>241</v>
-      </c>
-      <c r="B64" t="s">
-        <v>19</v>
-      </c>
-      <c r="C64" t="s">
-        <v>216</v>
-      </c>
-      <c r="D64" t="s">
-        <v>242</v>
-      </c>
-      <c r="E64" t="s">
-        <v>243</v>
       </c>
       <c r="F64">
         <v>5</v>
@@ -4442,106 +4442,106 @@
         <v>8</v>
       </c>
       <c r="J64" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="K64" t="s">
+        <v>429</v>
+      </c>
+      <c r="L64" t="s">
         <v>432</v>
-      </c>
-      <c r="L64" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
+        <v>242</v>
+      </c>
+      <c r="B65" t="s">
+        <v>19</v>
+      </c>
+      <c r="C65" t="s">
+        <v>243</v>
+      </c>
+      <c r="D65" t="s">
         <v>244</v>
       </c>
-      <c r="B65" t="s">
-        <v>19</v>
-      </c>
-      <c r="C65" t="s">
-        <v>245</v>
-      </c>
-      <c r="D65" t="s">
-        <v>246</v>
-      </c>
       <c r="E65" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F65">
         <v>1</v>
       </c>
       <c r="G65" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H65" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I65">
         <v>1</v>
       </c>
       <c r="J65" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="K65" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="L65" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
+        <v>245</v>
+      </c>
+      <c r="B66" t="s">
+        <v>19</v>
+      </c>
+      <c r="C66" t="s">
+        <v>246</v>
+      </c>
+      <c r="D66" t="s">
         <v>247</v>
       </c>
-      <c r="B66" t="s">
-        <v>19</v>
-      </c>
-      <c r="C66" t="s">
+      <c r="E66" t="s">
         <v>248</v>
       </c>
-      <c r="D66" t="s">
-        <v>249</v>
-      </c>
-      <c r="E66" t="s">
-        <v>250</v>
-      </c>
       <c r="F66">
         <v>1</v>
       </c>
       <c r="G66" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H66" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I66">
         <v>1</v>
       </c>
       <c r="J66" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="K66" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="L66" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
+        <v>249</v>
+      </c>
+      <c r="B67" t="s">
+        <v>19</v>
+      </c>
+      <c r="C67" t="s">
+        <v>246</v>
+      </c>
+      <c r="D67" t="s">
+        <v>250</v>
+      </c>
+      <c r="E67" t="s">
         <v>251</v>
-      </c>
-      <c r="B67" t="s">
-        <v>19</v>
-      </c>
-      <c r="C67" t="s">
-        <v>248</v>
-      </c>
-      <c r="D67" t="s">
-        <v>252</v>
-      </c>
-      <c r="E67" t="s">
-        <v>253</v>
       </c>
       <c r="F67">
         <v>5</v>
@@ -4556,68 +4556,68 @@
         <v>7</v>
       </c>
       <c r="J67" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="K67" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="L67" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
+        <v>252</v>
+      </c>
+      <c r="B68" t="s">
+        <v>19</v>
+      </c>
+      <c r="C68" t="s">
+        <v>246</v>
+      </c>
+      <c r="D68" t="s">
+        <v>253</v>
+      </c>
+      <c r="E68" t="s">
         <v>254</v>
       </c>
-      <c r="B68" t="s">
-        <v>19</v>
-      </c>
-      <c r="C68" t="s">
-        <v>248</v>
-      </c>
-      <c r="D68" t="s">
-        <v>255</v>
-      </c>
-      <c r="E68" t="s">
-        <v>256</v>
-      </c>
       <c r="F68">
         <v>1</v>
       </c>
       <c r="G68" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H68" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I68">
         <v>1</v>
       </c>
       <c r="J68" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="K68" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="L68" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
+        <v>255</v>
+      </c>
+      <c r="B69" t="s">
+        <v>19</v>
+      </c>
+      <c r="C69" t="s">
+        <v>246</v>
+      </c>
+      <c r="D69" t="s">
+        <v>256</v>
+      </c>
+      <c r="E69" t="s">
         <v>257</v>
-      </c>
-      <c r="B69" t="s">
-        <v>19</v>
-      </c>
-      <c r="C69" t="s">
-        <v>248</v>
-      </c>
-      <c r="D69" t="s">
-        <v>258</v>
-      </c>
-      <c r="E69" t="s">
-        <v>259</v>
       </c>
       <c r="F69">
         <v>4</v>
@@ -4632,372 +4632,372 @@
         <v>6</v>
       </c>
       <c r="J69" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="K69" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="L69" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
+        <v>258</v>
+      </c>
+      <c r="B70" t="s">
+        <v>19</v>
+      </c>
+      <c r="C70" t="s">
+        <v>246</v>
+      </c>
+      <c r="D70" t="s">
+        <v>259</v>
+      </c>
+      <c r="E70" t="s">
         <v>260</v>
       </c>
-      <c r="B70" t="s">
-        <v>19</v>
-      </c>
-      <c r="C70" t="s">
-        <v>248</v>
-      </c>
-      <c r="D70" t="s">
-        <v>261</v>
-      </c>
-      <c r="E70" t="s">
-        <v>262</v>
-      </c>
       <c r="F70">
         <v>1</v>
       </c>
       <c r="G70" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H70" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I70">
         <v>1</v>
       </c>
       <c r="J70" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="K70" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="L70" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B71" t="s">
         <v>19</v>
       </c>
       <c r="C71" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D71" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="E71" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F71">
         <v>1</v>
       </c>
       <c r="G71" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H71" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I71">
         <v>1</v>
       </c>
       <c r="J71" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="K71" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="L71" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B72" t="s">
         <v>19</v>
       </c>
       <c r="C72" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D72" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E72" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F72">
         <v>1</v>
       </c>
       <c r="G72" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H72" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I72">
         <v>1</v>
       </c>
       <c r="J72" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="K72" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="L72" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B73" t="s">
         <v>19</v>
       </c>
       <c r="C73" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D73" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E73" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F73">
         <v>1</v>
       </c>
       <c r="G73" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H73" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I73">
         <v>1</v>
       </c>
       <c r="J73" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="K73" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="L73" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B74" t="s">
         <v>19</v>
       </c>
       <c r="C74" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D74" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E74" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F74">
         <v>1</v>
       </c>
       <c r="G74" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H74" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I74">
         <v>1</v>
       </c>
       <c r="J74" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="K74" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="L74" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B75" t="s">
         <v>19</v>
       </c>
       <c r="C75" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D75" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E75" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F75">
         <v>1</v>
       </c>
       <c r="G75" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H75" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I75">
         <v>1</v>
       </c>
       <c r="J75" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="K75" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="L75" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B76" t="s">
         <v>19</v>
       </c>
       <c r="C76" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D76" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E76" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F76">
         <v>1</v>
       </c>
       <c r="G76" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H76" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I76">
         <v>1</v>
       </c>
       <c r="J76" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="K76" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="L76" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B77" t="s">
         <v>19</v>
       </c>
       <c r="C77" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D77" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E77" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F77">
         <v>1</v>
       </c>
       <c r="G77" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H77" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I77">
         <v>1</v>
       </c>
       <c r="J77" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="K77" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="L77" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
+        <v>274</v>
+      </c>
+      <c r="B78" t="s">
+        <v>19</v>
+      </c>
+      <c r="C78" t="s">
+        <v>275</v>
+      </c>
+      <c r="D78" t="s">
         <v>276</v>
       </c>
-      <c r="B78" t="s">
-        <v>19</v>
-      </c>
-      <c r="C78" t="s">
+      <c r="E78" t="s">
         <v>277</v>
-      </c>
-      <c r="D78" t="s">
-        <v>278</v>
-      </c>
-      <c r="E78" t="s">
-        <v>279</v>
       </c>
       <c r="F78">
         <v>2</v>
       </c>
       <c r="G78" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H78" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I78">
         <v>2</v>
       </c>
       <c r="J78" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="K78" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="L78" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
+        <v>278</v>
+      </c>
+      <c r="B79" t="s">
+        <v>19</v>
+      </c>
+      <c r="C79" t="s">
+        <v>275</v>
+      </c>
+      <c r="D79" t="s">
+        <v>279</v>
+      </c>
+      <c r="E79" t="s">
         <v>280</v>
-      </c>
-      <c r="B79" t="s">
-        <v>19</v>
-      </c>
-      <c r="C79" t="s">
-        <v>277</v>
-      </c>
-      <c r="D79" t="s">
-        <v>281</v>
-      </c>
-      <c r="E79" t="s">
-        <v>282</v>
       </c>
       <c r="F79">
         <v>5</v>
@@ -5012,74 +5012,74 @@
         <v>7</v>
       </c>
       <c r="J79" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="K79" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="L79" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B80" t="s">
         <v>19</v>
       </c>
       <c r="C80" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D80" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E80" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F80">
         <v>1</v>
       </c>
       <c r="G80" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H80" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I80">
         <v>1</v>
       </c>
       <c r="J80" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="K80" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="L80" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B81" t="s">
         <v>19</v>
       </c>
       <c r="C81" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D81" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E81" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F81">
         <v>1</v>
       </c>
       <c r="G81" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H81">
         <v>1</v>
@@ -5088,30 +5088,30 @@
         <v>2</v>
       </c>
       <c r="J81" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="K81" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="L81" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
+        <v>285</v>
+      </c>
+      <c r="B82" t="s">
+        <v>19</v>
+      </c>
+      <c r="C82" t="s">
+        <v>286</v>
+      </c>
+      <c r="D82" t="s">
+        <v>531</v>
+      </c>
+      <c r="E82" t="s">
         <v>287</v>
-      </c>
-      <c r="B82" t="s">
-        <v>19</v>
-      </c>
-      <c r="C82" t="s">
-        <v>288</v>
-      </c>
-      <c r="D82" t="s">
-        <v>289</v>
-      </c>
-      <c r="E82" t="s">
-        <v>290</v>
       </c>
       <c r="F82">
         <v>7</v>
@@ -5126,188 +5126,188 @@
         <v>11</v>
       </c>
       <c r="J82" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="K82" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="L82" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B83" t="s">
         <v>19</v>
       </c>
       <c r="C83" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D83" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E83" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F83">
         <v>1</v>
       </c>
       <c r="G83" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H83" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I83">
         <v>1</v>
       </c>
       <c r="J83" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="K83" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="L83" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B84" t="s">
         <v>19</v>
       </c>
       <c r="C84" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D84" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="E84" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="F84">
         <v>1</v>
       </c>
       <c r="G84" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H84" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I84">
         <v>1</v>
       </c>
       <c r="J84" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="K84" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="L84" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B85" t="s">
         <v>19</v>
       </c>
       <c r="C85" t="s">
+        <v>490</v>
+      </c>
+      <c r="D85" t="s">
+        <v>491</v>
+      </c>
+      <c r="E85" t="s">
+        <v>293</v>
+      </c>
+      <c r="F85">
+        <v>1</v>
+      </c>
+      <c r="G85" t="s">
+        <v>41</v>
+      </c>
+      <c r="H85" t="s">
+        <v>41</v>
+      </c>
+      <c r="I85">
+        <v>1</v>
+      </c>
+      <c r="J85" t="s">
+        <v>492</v>
+      </c>
+      <c r="K85" t="s">
         <v>493</v>
       </c>
-      <c r="D85" t="s">
-        <v>494</v>
-      </c>
-      <c r="E85" t="s">
-        <v>296</v>
-      </c>
-      <c r="F85">
-        <v>1</v>
-      </c>
-      <c r="G85" t="s">
-        <v>42</v>
-      </c>
-      <c r="H85" t="s">
-        <v>42</v>
-      </c>
-      <c r="I85">
-        <v>1</v>
-      </c>
-      <c r="J85" t="s">
-        <v>495</v>
-      </c>
-      <c r="K85" t="s">
-        <v>496</v>
-      </c>
       <c r="L85" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B86" t="s">
         <v>19</v>
       </c>
       <c r="C86" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="D86" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="E86" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="F86">
         <v>1</v>
       </c>
       <c r="G86" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H86" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I86">
         <v>1</v>
       </c>
       <c r="J86" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="K86" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="L86" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B87" t="s">
         <v>19</v>
       </c>
       <c r="C87" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D87" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="E87" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="F87">
         <v>1</v>
       </c>
       <c r="G87" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H87">
         <v>1</v>
@@ -5316,36 +5316,36 @@
         <v>2</v>
       </c>
       <c r="J87" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="K87" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="L87" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
+        <v>299</v>
+      </c>
+      <c r="B88" t="s">
+        <v>19</v>
+      </c>
+      <c r="C88" t="s">
+        <v>300</v>
+      </c>
+      <c r="D88" t="s">
+        <v>301</v>
+      </c>
+      <c r="E88" t="s">
         <v>302</v>
       </c>
-      <c r="B88" t="s">
-        <v>19</v>
-      </c>
-      <c r="C88" t="s">
-        <v>303</v>
-      </c>
-      <c r="D88" t="s">
-        <v>304</v>
-      </c>
-      <c r="E88" t="s">
-        <v>305</v>
-      </c>
       <c r="F88">
         <v>1</v>
       </c>
       <c r="G88" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H88">
         <v>1</v>
@@ -5354,112 +5354,112 @@
         <v>2</v>
       </c>
       <c r="J88" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="K88" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="L88" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B89" t="s">
         <v>19</v>
       </c>
       <c r="C89" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D89" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="E89" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F89">
         <v>1</v>
       </c>
       <c r="G89" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H89" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I89">
         <v>1</v>
       </c>
       <c r="J89" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="K89" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="L89" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B90" t="s">
         <v>19</v>
       </c>
       <c r="C90" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D90" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="E90" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F90">
         <v>1</v>
       </c>
       <c r="G90" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H90" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I90">
         <v>1</v>
       </c>
       <c r="J90" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="K90" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="L90" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="B91" t="s">
         <v>19</v>
       </c>
       <c r="C91" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="D91" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="E91" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="F91">
         <v>1</v>
       </c>
       <c r="G91" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H91">
         <v>1</v>
@@ -5468,13 +5468,13 @@
         <v>2</v>
       </c>
       <c r="J91" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="K91" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="L91" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
     </row>
   </sheetData>
